--- a/src/testdata/GoodsServiceSetup.xlsx
+++ b/src/testdata/GoodsServiceSetup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\VATPROMPT\src\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676FA07B-75CA-47D7-ADA6-208C14956718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1CFD81-571E-495A-8B3C-67E1A662213D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="4440" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>VAT Transaction</t>
   </si>
@@ -85,12 +85,6 @@
   </si>
   <si>
     <t>//div[@id='MainContent_part_a']</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>100</t>
   </si>
   <si>
     <t>Add Payment</t>
@@ -213,13 +207,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -505,7 +499,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,37 +536,37 @@
         <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -625,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>1</v>
@@ -663,39 +657,39 @@
         <v>19</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="Q3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
